--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\BWES3-Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB42FED7-A8D8-4F8F-8A43-E1E4D3636856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0929DD83-8CE0-4886-B9DA-16097910975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8689C7FC-1607-4B71-BD5D-27DE32EFF972}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>PART DESC</t>
   </si>
@@ -98,18 +98,12 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>EDU</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
     <t>Skateboard Hardware</t>
   </si>
   <si>
-    <t>Power Electronics</t>
-  </si>
-  <si>
     <t>Body/Fixings</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t>Project Code</t>
-  </si>
-  <si>
-    <t>Project Version</t>
   </si>
   <si>
     <t>ES3-06-XXX</t>
@@ -490,6 +481,27 @@
   </si>
   <si>
     <t>https://diyelectricskateboard.com/products/1-5-deck-hardware-bolts?_pos=1&amp;_psq=1.5&amp;_ss=e&amp;_v=1.0</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>ES3-01-XXX</t>
+  </si>
+  <si>
+    <t>XT90S pair for loopkey to replace power button</t>
+  </si>
+  <si>
+    <t>Control Electronics</t>
+  </si>
+  <si>
+    <t>Drivetrain</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -549,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -557,8 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,29 +579,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -602,13 +591,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -648,38 +652,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{776A9607-C493-409D-9E00-80DA94FD3CF1}" name="Table1" displayName="Table1" ref="A1:R24" totalsRowCount="1">
-  <autoFilter ref="A1:R23" xr:uid="{776A9607-C493-409D-9E00-80DA94FD3CF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{776A9607-C493-409D-9E00-80DA94FD3CF1}" name="Table1" displayName="Table1" ref="A4:R28" totalsRowCount="1">
+  <autoFilter ref="A4:R27" xr:uid="{776A9607-C493-409D-9E00-80DA94FD3CF1}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{968A13B1-F47E-4155-BEDF-162D964B7A4F}" name="SKU" totalsRowLabel="Total"/>
-    <tableColumn id="13" xr3:uid="{D4FF5137-5E91-4A1F-B346-C6CD65681515}" name="PROJECT CODE" dataDxfId="18">
+    <tableColumn id="13" xr3:uid="{D4FF5137-5E91-4A1F-B346-C6CD65681515}" name="PROJECT CODE" dataDxfId="17">
       <calculatedColumnFormula>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A56ED712-9EDB-4875-B35D-0CA1E2E940BE}" name="DELIM1" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{A56ED712-9EDB-4875-B35D-0CA1E2E940BE}" name="DELIM1" dataDxfId="16">
       <calculatedColumnFormula>SEARCH("-",Table1[[#This Row],[SKU]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A744971F-04A4-4EB3-892C-AB71A912C050}" name="DEPT CODE" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{A744971F-04A4-4EB3-892C-AB71A912C050}" name="DEPT CODE" dataDxfId="15">
       <calculatedColumnFormula>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{924CF372-495E-4EC3-9689-1E261CD9744B}" name="DELIM2" dataDxfId="15">
+    <tableColumn id="15" xr3:uid="{924CF372-495E-4EC3-9689-1E261CD9744B}" name="DELIM2" dataDxfId="14">
       <calculatedColumnFormula>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9555DDC5-C860-4373-8B96-47144CBD008E}" name="ITEM NO." dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{9555DDC5-C860-4373-8B96-47144CBD008E}" name="ITEM NO." dataDxfId="13">
       <calculatedColumnFormula>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5F6158BB-1E3F-439D-8962-C5FB9FCD6785}" name="PART DEPT" dataDxfId="13">
+    <tableColumn id="16" xr3:uid="{5F6158BB-1E3F-439D-8962-C5FB9FCD6785}" name="PART DEPT" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2EB5C5F4-78ED-4C9C-A386-E9B5518620BB}" name="PART NAME" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{B406679D-D5CD-4F5C-B9BD-6843AA790D0E}" name="PART DESC" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2EB5C5F4-78ED-4C9C-A386-E9B5518620BB}" name="PART NAME" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{B406679D-D5CD-4F5C-B9BD-6843AA790D0E}" name="PART DESC" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="3" xr3:uid="{7E9CAB1B-58D5-4A4D-931C-5EBA5E2168BB}" name="UNIT QUANTITY"/>
-    <tableColumn id="4" xr3:uid="{BE8EF167-119B-4164-B836-FB989BBB8EE5}" name="UNIT PRICE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BE8EF167-119B-4164-B836-FB989BBB8EE5}" name="UNIT PRICE" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{5C453E69-0F6B-40D9-A3AC-DC8800C631AA}" name="QUANTITY"/>
-    <tableColumn id="6" xr3:uid="{0915F2AB-043E-4ACE-905E-E162497DE74A}" name="PRICE" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2">
-      <calculatedColumnFormula>K2*L2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{0915F2AB-043E-4ACE-905E-E162497DE74A}" name="PRICE" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+      <calculatedColumnFormula>K5*L5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{F21EA790-1F95-40AE-B6AD-6C23172A8F27}" name="SUPPLIER" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{4675D8ED-8CCD-44D6-9624-64F0C03812F3}" name="LINK" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{F21EA790-1F95-40AE-B6AD-6C23172A8F27}" name="SUPPLIER" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4675D8ED-8CCD-44D6-9624-64F0C03812F3}" name="LINK" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="8" xr3:uid="{23FD9023-B862-4CB6-B5D0-22A37E35AB17}" name="ES1"/>
     <tableColumn id="9" xr3:uid="{C03BCFE4-3587-480D-9A46-6461658FD563}" name="ES2"/>
     <tableColumn id="10" xr3:uid="{E88C9257-DA7F-4A32-BD13-D76E3DE8080C}" name="ES3"/>
@@ -689,9 +693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -835,7 +839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -977,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC213AA-F2E9-4C08-9B16-F462D8D77451}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A4:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,245 +1008,65 @@
     <col min="15" max="15" width="51.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="str">
-        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
-        <v>ES</v>
-      </c>
-      <c r="C2">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>04</v>
-      </c>
-      <c r="E2">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
-        <v>6</v>
-      </c>
-      <c r="F2" t="str">
-        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>001</v>
-      </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Skateboard Hardware</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>44.49</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <f>K2*L2</f>
-        <v>44.49</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="str">
-        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
-        <v>ES</v>
-      </c>
-      <c r="C3">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
-        <v>3</v>
-      </c>
-      <c r="D3" t="str">
-        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>04</v>
-      </c>
-      <c r="E3">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
-        <v>6</v>
-      </c>
-      <c r="F3" t="str">
-        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>002</v>
-      </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Skateboard Hardware</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>29.95</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M6" si="0">K3*L3</f>
-        <v>59.9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="str">
-        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
-        <v>ES</v>
-      </c>
-      <c r="C4">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
-        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>04</v>
-      </c>
-      <c r="E4">
-        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
-        <v>6</v>
-      </c>
-      <c r="F4" t="str">
-        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>003</v>
-      </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Skateboard Hardware</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="N4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>53.95</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="0"/>
-        <v>53.95</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1262,47 +1086,47 @@
       </c>
       <c r="F5" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>004</v>
+        <v>001</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Skateboard Hardware</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>2.0299999999999998</v>
+        <v>44.49</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0299999999999998</v>
+        <f>K5*L5</f>
+        <v>44.49</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1314,7 +1138,7 @@
       </c>
       <c r="D6" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="E6">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
@@ -1322,44 +1146,47 @@
       </c>
       <c r="F6" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>005</v>
+        <v>002</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Electrical</v>
+        <v>Skateboard Hardware</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>2.75</v>
+        <v>29.95</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
+        <f t="shared" ref="M6:M9" si="0">K6*L6</f>
+        <v>59.9</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1371,7 +1198,7 @@
       </c>
       <c r="D7" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>02</v>
+        <v>04</v>
       </c>
       <c r="E7">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
@@ -1379,41 +1206,47 @@
       </c>
       <c r="F7" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>006</v>
+        <v>003</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>EDU</v>
+        <v>Skateboard Hardware</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>59.2</v>
+        <v>53.95</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" s="3">
-        <f>K7*L7</f>
-        <v>59.2</v>
+        <f t="shared" si="0"/>
+        <v>53.95</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1433,47 +1266,47 @@
       </c>
       <c r="F8" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>007</v>
+        <v>004</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Skateboard Hardware</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
-        <v>12.18</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" s="3">
-        <f>K8*L8</f>
-        <v>12.18</v>
+        <f t="shared" si="0"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B9" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1485,7 +1318,7 @@
       </c>
       <c r="D9" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>06</v>
+        <v>01</v>
       </c>
       <c r="E9">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
@@ -1493,47 +1326,44 @@
       </c>
       <c r="F9" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>008</v>
+        <v>005</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Body/Fixings</v>
+        <v>Electrical</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <f>K9*L9</f>
-        <v>1.62</v>
+        <f t="shared" si="0"/>
+        <v>2.75</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B10" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
@@ -1545,7 +1375,7 @@
       </c>
       <c r="D10" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="E10">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
@@ -1553,850 +1383,1057 @@
       </c>
       <c r="F10" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
-        <v>009</v>
+        <v>006</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Body/Fixings</v>
+        <v>Drivetrain</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>14.61</v>
+        <v>59.2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <f>K10*L10</f>
-        <v>14.61</v>
+        <f t="shared" ref="M10:M26" si="1">K10*L10</f>
+        <v>59.2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="4" t="str">
+        <v>59</v>
+      </c>
+      <c r="B11" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" t="str">
+        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
+        <v>04</v>
+      </c>
+      <c r="E11">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
+        <v>007</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
+        <v>Skateboard Hardware</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12.18</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>12.18</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="str">
+        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
+        <v>ES</v>
+      </c>
+      <c r="C12">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
+        <v>06</v>
+      </c>
+      <c r="E12">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
+        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
+        <v>008</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
+        <v>Body/Fixings</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="str">
+        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
+        <v>ES</v>
+      </c>
+      <c r="C13">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
+        <v>06</v>
+      </c>
+      <c r="E13">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F13" t="str">
+        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
+        <v>009</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
+        <v>Body/Fixings</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>14.61</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>14.61</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="str">
+        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
+        <v>ES</v>
+      </c>
+      <c r="C14">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>02</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E14">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="F14" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>010</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G14" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>EDU</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>Drivetrain</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>32.479999999999997</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <f>K11*L11</f>
-        <v>32.479999999999997</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="4" t="str">
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C15">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D15" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>05</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="F15" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>011</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G15" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Power Electronics</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
+        <v>Control Electronics</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
         <v>25</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <f>K12*L12</f>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="4" t="str">
+      <c r="N15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C16">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D16" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>03</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E16">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="F16" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>012</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="G16" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Battery</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>17.87</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>17.87</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>17.87</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <f>K13*L13</f>
-        <v>17.87</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="str">
+      <c r="B17" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D17" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>03</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E17">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="F17" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>013</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="G17" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Battery</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>34.46</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>68.92</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>34.46</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3">
-        <f>K14*L14</f>
-        <v>68.92</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="4" t="str">
+      <c r="B18" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C18">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D18" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>01</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E18">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F18" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>014</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G18" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Electrical</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2.56</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <f>K15*L15</f>
-        <v>2.56</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4" t="str">
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C19">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D19" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>01</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E19">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F16" s="4" t="str">
+      <c r="F19" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>015</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="G19" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Electrical</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16" s="3">
-        <f>K16*L16</f>
-        <v>9</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="4" t="str">
+      <c r="O19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C20">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D20" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>04</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E20">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="F20" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>016</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="G20" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Skateboard Hardware</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <f>K17*L17</f>
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="4" t="str">
+      <c r="O20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D21" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>05</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E21">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="str">
+      <c r="F21" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>017</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="G21" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Power Electronics</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
+        <v>Control Electronics</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
         <v>28.92</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <f>K18*L18</f>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
         <v>28.92</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="4" t="str">
+      <c r="N21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C22">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D22" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>02</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E22">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F22" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>018</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="G22" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>EDU</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
+        <v>Drivetrain</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>72.33</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <f>K19*L19</f>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
         <v>72.33</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="4" t="str">
+      <c r="N22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C23">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D23" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>05</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E23">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F20" s="4" t="str">
+      <c r="F23" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>019</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="G23" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Power Electronics</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="1" t="s">
+        <v>Control Electronics</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>74.72</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>74.72</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>126</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>74.72</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <f>K20*L20</f>
-        <v>74.72</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="4" t="str">
+      <c r="B24" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D24" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>01</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E24">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F21" s="4" t="str">
+      <c r="F24" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>020</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="G24" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Electrical</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="H24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>25.95</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <f>K21*L21</f>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
         <v>25.95</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="4" t="str">
+      <c r="N24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D25" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>05</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E25">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="F25" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>021</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="G25" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
-        <v>Power Electronics</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="1" t="s">
+        <v>Control Electronics</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>74.150000000000006</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>74.150000000000006</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <f>K22*L22</f>
-        <v>74.150000000000006</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="4" t="str">
+      <c r="Q25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="str">
         <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
         <v>ES</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C26">
         <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D26" t="str">
         <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
         <v>03</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E26">
         <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="F26" t="str">
         <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
         <v>022</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="G26" t="str">
         <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
         <v>Battery</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
         <v>133.49</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <f>K23*L23</f>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
         <v>133.49</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" t="e">
+        <f>LEFT(Table1[[#This Row],[SKU]],SEARCH("-",Table1[[#This Row],[SKU]])-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>MID(Table1[[#This Row],[SKU]], Table1[[#This Row],[DELIM1]]+1, LEN(Table1[[#This Row],[SKU]])-SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
+        <f>SEARCH("-",Table1[[#This Row],[SKU]],Table1[[#This Row],[DELIM1]]+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="e">
+        <f>RIGHT(Table1[[#This Row],[SKU]],LEN(Table1[[#This Row],[SKU]])-Table1[[#This Row],[DELIM2]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[DEPT CODE]],Info!$A$1:$B$7,2,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="M27" s="3">
+        <f>K27*L27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="3">
         <f>SUBTOTAL(109,Table1[PRICE])</f>
         <v>820.93000000000018</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B25" t="str">
-        <f>A7</f>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f>A10</f>
         <v>ES-02-006</v>
       </c>
-      <c r="D25" t="str" cm="1">
-        <f t="array" ref="D25:F25">_xlfn.TEXTSPLIT(B25,"-")</f>
+      <c r="D29" t="str" cm="1">
+        <f t="array" ref="D29:F29">_xlfn.TEXTSPLIT(B29,"-")</f>
         <v>ES</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E29" t="str">
         <v>02</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F29" t="str">
         <v>006</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D26" t="str">
-        <f>LEFT(A2,SEARCH("-",A2)-1)</f>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f>LEFT(A5,SEARCH("-",A5)-1)</f>
         <v>ES</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="P2:R23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="P5:R27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1" xr:uid="{14289C51-BB3F-4541-ABC3-9697115DB2E4}"/>
-    <hyperlink ref="O7" r:id="rId2" display="https://uk.banggood.com/Flipsky-6354-190KV-2450W-Brushless-Motor-Shaft-8mm-for-Electric-Skateboard-RC-Models-p-1323575.html?imageAb=1&amp;utm_design=41&amp;utm_source=emarsys&amp;utm_medium=Neworder171109&amp;utm_campaign=trigger-order&amp;utm_content=winna&amp;sc_src=email_2675773&amp;sc_eh=ffc32019a4982a831&amp;sc_llid=15647628&amp;sc_lid=105229698&amp;sc_uid=d0NoDMntQX&amp;akmClientCountry=GB&amp;cur_warehouse=CN" xr:uid="{3818573E-E867-45E9-8BC1-F7A0B936B330}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{5B2C6E73-A36A-4512-8287-530B8BB9A712}"/>
-    <hyperlink ref="O3" r:id="rId4" xr:uid="{994514F3-D27A-430A-BCD7-B4F5F5A72D81}"/>
-    <hyperlink ref="O5" r:id="rId5" xr:uid="{67ADE5A0-3CDA-479B-949C-365E76501299}"/>
-    <hyperlink ref="O9" r:id="rId6" xr:uid="{D330C34A-A1F8-425A-8E1A-8DD15BF2AD59}"/>
-    <hyperlink ref="O8" r:id="rId7" xr:uid="{BB2D4D9B-34CA-4428-9461-507CC0CDBE8B}"/>
-    <hyperlink ref="O11" r:id="rId8" xr:uid="{045CD857-479F-475B-A4DE-8506800851C0}"/>
-    <hyperlink ref="O12" r:id="rId9" display="https://rover.ebay.com/rover/0/e11400.m43.l9264/7?euid=18bf052912434fb09d7f7d4f59c240ef&amp;bu=44949611664&amp;loc=https%3A%2F%2Fwww.ebay.co.uk%2Fsignin%2Fg%2Fv%255E1.1%2523i%255E1%2523r%255E1%2523f%255E0%2523I%255E3%2523p%255E3%2523t%255EUl4xMF8xMTozREU4NTNCQjAzMTAxRDMyNDBFNkQwNTVEQTI2QTA5Nl8zXzEjRV4yNjA%253D&amp;sojTags=bu=bu" xr:uid="{DDC12E79-9D8B-4744-A5F5-5FF6FDD6ABBA}"/>
-    <hyperlink ref="O14" r:id="rId10" xr:uid="{B4DE4CF1-0347-4662-8EA3-5C4E6E38C41C}"/>
-    <hyperlink ref="O13" r:id="rId11" xr:uid="{8BE3230A-9B35-4CB2-985E-71C7AE18D47C}"/>
-    <hyperlink ref="O15" r:id="rId12" xr:uid="{DD78854D-5D48-4E91-A9A5-E8571CD9F655}"/>
-    <hyperlink ref="O16" r:id="rId13" xr:uid="{2E918F54-8CC1-4406-B608-1DE39881D77C}"/>
-    <hyperlink ref="O23" r:id="rId14" xr:uid="{A3861E13-5452-44D6-9886-C73AE8014510}"/>
-    <hyperlink ref="O22" r:id="rId15" xr:uid="{982398A9-3AFA-4555-95D4-310673249702}"/>
-    <hyperlink ref="O21" r:id="rId16" xr:uid="{2614FD68-52E9-4383-BEF2-98F1666BDF70}"/>
-    <hyperlink ref="O19" r:id="rId17" xr:uid="{5575F01D-6979-43CF-95CB-2350C4F3FFCD}"/>
-    <hyperlink ref="O18" r:id="rId18" xr:uid="{05A8AC16-0522-43E9-8654-0E26DE8E4B09}"/>
-    <hyperlink ref="O17" r:id="rId19" xr:uid="{48D72F07-58E7-4CD2-9E11-3A3AFB55BA33}"/>
+    <hyperlink ref="O9" r:id="rId1" xr:uid="{14289C51-BB3F-4541-ABC3-9697115DB2E4}"/>
+    <hyperlink ref="O10" r:id="rId2" display="https://uk.banggood.com/Flipsky-6354-190KV-2450W-Brushless-Motor-Shaft-8mm-for-Electric-Skateboard-RC-Models-p-1323575.html?imageAb=1&amp;utm_design=41&amp;utm_source=emarsys&amp;utm_medium=Neworder171109&amp;utm_campaign=trigger-order&amp;utm_content=winna&amp;sc_src=email_2675773&amp;sc_eh=ffc32019a4982a831&amp;sc_llid=15647628&amp;sc_lid=105229698&amp;sc_uid=d0NoDMntQX&amp;akmClientCountry=GB&amp;cur_warehouse=CN" xr:uid="{3818573E-E867-45E9-8BC1-F7A0B936B330}"/>
+    <hyperlink ref="O7" r:id="rId3" xr:uid="{5B2C6E73-A36A-4512-8287-530B8BB9A712}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{994514F3-D27A-430A-BCD7-B4F5F5A72D81}"/>
+    <hyperlink ref="O8" r:id="rId5" xr:uid="{67ADE5A0-3CDA-479B-949C-365E76501299}"/>
+    <hyperlink ref="O12" r:id="rId6" xr:uid="{D330C34A-A1F8-425A-8E1A-8DD15BF2AD59}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{BB2D4D9B-34CA-4428-9461-507CC0CDBE8B}"/>
+    <hyperlink ref="O14" r:id="rId8" xr:uid="{045CD857-479F-475B-A4DE-8506800851C0}"/>
+    <hyperlink ref="O15" r:id="rId9" display="https://rover.ebay.com/rover/0/e11400.m43.l9264/7?euid=18bf052912434fb09d7f7d4f59c240ef&amp;bu=44949611664&amp;loc=https%3A%2F%2Fwww.ebay.co.uk%2Fsignin%2Fg%2Fv%255E1.1%2523i%255E1%2523r%255E1%2523f%255E0%2523I%255E3%2523p%255E3%2523t%255EUl4xMF8xMTozREU4NTNCQjAzMTAxRDMyNDBFNkQwNTVEQTI2QTA5Nl8zXzEjRV4yNjA%253D&amp;sojTags=bu=bu" xr:uid="{DDC12E79-9D8B-4744-A5F5-5FF6FDD6ABBA}"/>
+    <hyperlink ref="O17" r:id="rId10" xr:uid="{B4DE4CF1-0347-4662-8EA3-5C4E6E38C41C}"/>
+    <hyperlink ref="O16" r:id="rId11" xr:uid="{8BE3230A-9B35-4CB2-985E-71C7AE18D47C}"/>
+    <hyperlink ref="O18" r:id="rId12" xr:uid="{DD78854D-5D48-4E91-A9A5-E8571CD9F655}"/>
+    <hyperlink ref="O19" r:id="rId13" xr:uid="{2E918F54-8CC1-4406-B608-1DE39881D77C}"/>
+    <hyperlink ref="O26" r:id="rId14" xr:uid="{A3861E13-5452-44D6-9886-C73AE8014510}"/>
+    <hyperlink ref="O25" r:id="rId15" xr:uid="{982398A9-3AFA-4555-95D4-310673249702}"/>
+    <hyperlink ref="O24" r:id="rId16" xr:uid="{2614FD68-52E9-4383-BEF2-98F1666BDF70}"/>
+    <hyperlink ref="O22" r:id="rId17" xr:uid="{5575F01D-6979-43CF-95CB-2350C4F3FFCD}"/>
+    <hyperlink ref="O21" r:id="rId18" xr:uid="{05A8AC16-0522-43E9-8654-0E26DE8E4B09}"/>
+    <hyperlink ref="O20" r:id="rId19" xr:uid="{48D72F07-58E7-4CD2-9E11-3A3AFB55BA33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
@@ -2408,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932AF271-04F3-4149-9F7A-8A0A209E6E1F}">
-  <dimension ref="A2:G3"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2485,7 @@
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2468,6 +2505,20 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2534,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2501,85 +2552,91 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>55</v>
+      <c r="A2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
